--- a/t2_CAMs/dataPreperation_step2/data/change_single_concepts.xlsx
+++ b/t2_CAMs/dataPreperation_step2/data/change_single_concepts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\AnalysesCAMspiracy\t2_CAMs\dataPreperation_step2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA82E53C-A1AC-40D9-BB6E-327CD31498A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5F1E3-F7C3-4153-81E1-0A4DD2FA77DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$1:$P$1686</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1686</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -15768,10 +15768,10 @@
     <t xml:space="preserve"> negative consequences </t>
   </si>
   <si>
-    <t>environmentally damaging behavior</t>
-  </si>
-  <si>
     <t>text_overwrite</t>
+  </si>
+  <si>
+    <t>environmental damaging behavior</t>
   </si>
 </sst>
 </file>
@@ -16145,8 +16145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="H708" zoomScale="91" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="Q739" sqref="Q739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16208,7 +16208,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -52808,8 +52808,8 @@
       <c r="P732" t="s">
         <v>475</v>
       </c>
-      <c r="Q732" s="4" t="s">
-        <v>5238</v>
+      <c r="Q732" t="s">
+        <v>5239</v>
       </c>
     </row>
     <row r="733" spans="1:17" x14ac:dyDescent="0.25">
@@ -100606,7 +100606,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="P1:P1686" xr:uid="{3DF11368-6557-4E40-B332-CD06622F4C7E}"/>
+  <autoFilter ref="A1:Q1686" xr:uid="{45A7177F-FF7C-4BED-BB9B-C2FEBAD55EC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>